--- a/biology/Médecine/Muscle_constricteur_du_pharynx/Muscle_constricteur_du_pharynx.xlsx
+++ b/biology/Médecine/Muscle_constricteur_du_pharynx/Muscle_constricteur_du_pharynx.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les muscles constricteurs du pharynx sont des muscles du cou. Ils sont au nombre de trois muscles distincts : constricteur inférieur, moyen et supérieur du pharynx.
 Leur contraction rétrécit le pharynx, aidant le bol alimentaire à avancer vers l'œsophage lors de la phase œsophagienne de la déglutition.
@@ -514,12 +526,17 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Description
-Le muscle constricteur supérieur du pharynx est le plus profond des trois. De forme quasiment quadrilatère, il est à la fois le plus large et le plus mince des trois.
-Il occupe la partie supérieure de l'ensemble et est composé de quatre parties : ptérygo-pharyngée, bucco-pharyngée, mylo-pharyngée et glosso-pharyngée[1].
-Insertions proximales : La partie ptérygo-pharyngée s'insère sur le bas du processus ptérygoïde, la partie bucco-pharyngée sur le ligament ptérygo-mandibulaire, la partie mylo-pharyngée sur la ligne mylo-hyoïdienne de la mandibule et le muscle descend jusqu'à la langue avec la partie glosso-pharyngée[1].
-Trajet : Le trajet est approximativement horizontal et dirigé vers l'arrière. Néanmoins les 4 parties n'ayant pas les mêmes origines n'ont pas exactement les mêmes directions[1].
-Insertion distale : À sa terminaison le muscle s'insère sur le tubercule pharyngien de l’os occipital et sur le fascia pharyngo-basilaire[1].</t>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Le muscle constricteur supérieur du pharynx est le plus profond des trois. De forme quasiment quadrilatère, il est à la fois le plus large et le plus mince des trois.
+Il occupe la partie supérieure de l'ensemble et est composé de quatre parties : ptérygo-pharyngée, bucco-pharyngée, mylo-pharyngée et glosso-pharyngée.
+Insertions proximales : La partie ptérygo-pharyngée s'insère sur le bas du processus ptérygoïde, la partie bucco-pharyngée sur le ligament ptérygo-mandibulaire, la partie mylo-pharyngée sur la ligne mylo-hyoïdienne de la mandibule et le muscle descend jusqu'à la langue avec la partie glosso-pharyngée.
+Trajet : Le trajet est approximativement horizontal et dirigé vers l'arrière. Néanmoins les 4 parties n'ayant pas les mêmes origines n'ont pas exactement les mêmes directions.
+Insertion distale : À sa terminaison le muscle s'insère sur le tubercule pharyngien de l’os occipital et sur le fascia pharyngo-basilaire.</t>
         </is>
       </c>
     </row>
@@ -547,12 +564,14 @@
           <t>Muscle constricteur moyen du pharynx</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Le muscle constricteur moyen du pharynx comporte 2 parties : chondro-pharyngienne et cérato-pharyngienne.
 Insertion proximale : Le muscle s'insère sur la face postérieure de l'os hyoïde.
 Trajet : Il forme un éventail avant son insertion terminale.
-Insertion distale : Il se termine sur le raphé pharyngien (raphé médian postérieur)[2].</t>
+Insertion distale : Il se termine sur le raphé pharyngien (raphé médian postérieur).</t>
         </is>
       </c>
     </row>
@@ -580,12 +599,14 @@
           <t>Muscle constricteur inférieur du pharynx</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Le muscle constricteur inférieur du pharynx est de forme trapézoïdale.
-Il occupe la partie inférieure de l'ensemble et est composé de deux parties : crico-pharyngée et  thyréo-pharyngée[3].
-Insertions proximales : La partie crico-pharyngée s'insère sur le cartilage cricoïde et la partie thyréo-pharyngée sur le cartilage thyroïde[3].
-Insertion distale : À sa terminaison le muscle s'insère sur la partie supérieure de l'œsophage[3].</t>
+Il occupe la partie inférieure de l'ensemble et est composé de deux parties : crico-pharyngée et  thyréo-pharyngée.
+Insertions proximales : La partie crico-pharyngée s'insère sur le cartilage cricoïde et la partie thyréo-pharyngée sur le cartilage thyroïde.
+Insertion distale : À sa terminaison le muscle s'insère sur la partie supérieure de l'œsophage.</t>
         </is>
       </c>
     </row>
@@ -613,9 +634,11 @@
           <t>Innervation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'ensemble des trois muscles est sous le contrôle de filets du nerf vague et des nerfs laryngés[3]. Le Nerf glossopharyngien participe également à leur innervation, surtout pour la partie supérieure.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'ensemble des trois muscles est sous le contrôle de filets du nerf vague et des nerfs laryngés. Le Nerf glossopharyngien participe également à leur innervation, surtout pour la partie supérieure.
 </t>
         </is>
       </c>
